--- a/mysite/order.xlsx
+++ b/mysite/order.xlsx
@@ -86,16 +86,16 @@
     <t>Ecount</t>
   </si>
   <si>
+    <t>['A0131']</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>['A0048']</t>
+  </si>
+  <si>
     <t>['A0159']</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>['A0131']</t>
-  </si>
-  <si>
-    <t>['A0048']</t>
   </si>
   <si>
     <t>['A0009']</t>
@@ -606,7 +606,7 @@
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s"/>
       <c r="O4" t="s"/>
@@ -638,7 +638,7 @@
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
       <c r="M5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N5" t="s"/>
       <c r="O5" t="s"/>
@@ -656,7 +656,7 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="s"/>
@@ -670,7 +670,7 @@
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s"/>
       <c r="O6" t="s"/>
@@ -688,7 +688,7 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
@@ -702,7 +702,7 @@
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N7" t="s"/>
       <c r="O7" t="s"/>
@@ -720,7 +720,7 @@
     </row>
     <row r="8" spans="1:24">
       <c r="A8" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
@@ -752,7 +752,7 @@
     </row>
     <row r="9" spans="1:24">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
@@ -766,7 +766,7 @@
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
       <c r="M9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N9" t="s"/>
       <c r="O9" t="s"/>
@@ -784,7 +784,7 @@
     </row>
     <row r="10" spans="1:24">
       <c r="A10" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
@@ -798,7 +798,7 @@
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
       <c r="M10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N10" t="s"/>
       <c r="O10" t="s"/>
@@ -816,7 +816,7 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
@@ -830,7 +830,7 @@
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
       <c r="M11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s"/>
       <c r="O11" t="s"/>
@@ -862,7 +862,7 @@
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
       <c r="M12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s"/>
       <c r="O12" t="s"/>
